--- a/WebApp/PSWebApi/Storage/ProductStore.xlsx
+++ b/WebApp/PSWebApi/Storage/ProductStore.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Projects\Веб\ExcelApp2\ExcelApp2\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Projects\Product-store\WebApp\PSWebApi\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -48,12 +48,69 @@
   </si>
   <si>
     <t>skirt</t>
+  </si>
+  <si>
+    <t>dfgh</t>
+  </si>
+  <si>
+    <t>ghsres</t>
+  </si>
+  <si>
+    <t>vbcncv</t>
+  </si>
+  <si>
+    <t>tetr</t>
+  </si>
+  <si>
+    <t>sdgs</t>
+  </si>
+  <si>
+    <t>rtyryt</t>
+  </si>
+  <si>
+    <t>bcmc</t>
+  </si>
+  <si>
+    <t>dsfhsr</t>
+  </si>
+  <si>
+    <t>ncvbndgf</t>
+  </si>
+  <si>
+    <t>hstshgfvhx</t>
+  </si>
+  <si>
+    <t>dszfhsh</t>
+  </si>
+  <si>
+    <t>tshdthsfhsdfh</t>
+  </si>
+  <si>
+    <t>srghsrthfghdxvh</t>
+  </si>
+  <si>
+    <t>fseysgfhdfgn</t>
+  </si>
+  <si>
+    <t>sdfgbsx</t>
+  </si>
+  <si>
+    <t>adsfgagf</t>
+  </si>
+  <si>
+    <t>swag</t>
+  </si>
+  <si>
+    <t>dfsg4</t>
+  </si>
+  <si>
+    <t>adfhsbv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,6 +510,215 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>345345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>345345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>345345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>345345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
